--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -546,10 +546,10 @@
         <v>0.855982</v>
       </c>
       <c r="I2">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J2">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N2">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O2">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P2">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q2">
-        <v>2.758275880318666</v>
+        <v>2.588248466403333</v>
       </c>
       <c r="R2">
-        <v>24.824482922868</v>
+        <v>23.29423619763</v>
       </c>
       <c r="S2">
-        <v>0.008008369223889962</v>
+        <v>0.008333084583561546</v>
       </c>
       <c r="T2">
-        <v>0.008407486210286494</v>
+        <v>0.008553855114118126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.855982</v>
       </c>
       <c r="I3">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J3">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N3">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O3">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P3">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q3">
-        <v>5.880335931253778</v>
+        <v>5.880335931253777</v>
       </c>
       <c r="R3">
-        <v>52.923023381284</v>
+        <v>52.92302338128399</v>
       </c>
       <c r="S3">
-        <v>0.0170729482261022</v>
+        <v>0.01893223828042554</v>
       </c>
       <c r="T3">
-        <v>0.01792382103858176</v>
+        <v>0.01943381488724869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.855982</v>
       </c>
       <c r="I4">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J4">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N4">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O4">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P4">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q4">
-        <v>3.284836441328445</v>
+        <v>5.081938503448888</v>
       </c>
       <c r="R4">
-        <v>29.56352797195601</v>
+        <v>45.73744653104</v>
       </c>
       <c r="S4">
-        <v>0.009537183444901736</v>
+        <v>0.01636173031584771</v>
       </c>
       <c r="T4">
-        <v>0.01001249268812256</v>
+        <v>0.01679520580099747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.855982</v>
       </c>
       <c r="I5">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J5">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N5">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O5">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P5">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q5">
-        <v>2.596583020473667</v>
+        <v>1.516221460168</v>
       </c>
       <c r="R5">
-        <v>15.579498122842</v>
+        <v>9.097328761007999</v>
       </c>
       <c r="S5">
-        <v>0.007538910700271996</v>
+        <v>0.004881603075978495</v>
       </c>
       <c r="T5">
-        <v>0.005276420702818235</v>
+        <v>0.003340621752392098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.855982</v>
       </c>
       <c r="I6">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J6">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N6">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O6">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P6">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q6">
-        <v>3.712497602931112</v>
+        <v>4.515486803511333</v>
       </c>
       <c r="R6">
-        <v>33.41247842638001</v>
+        <v>40.639381231602</v>
       </c>
       <c r="S6">
-        <v>0.01077885347119227</v>
+        <v>0.01453799121608452</v>
       </c>
       <c r="T6">
-        <v>0.01131604442654915</v>
+        <v>0.01492314991714143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H7">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I7">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J7">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N7">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O7">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P7">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q7">
-        <v>17.331845945866</v>
+        <v>29.51731461484333</v>
       </c>
       <c r="R7">
-        <v>155.986613512794</v>
+        <v>265.65583153359</v>
       </c>
       <c r="S7">
-        <v>0.05032122517419817</v>
+        <v>0.09503348791968595</v>
       </c>
       <c r="T7">
-        <v>0.05282910851246808</v>
+        <v>0.09755123430018701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H8">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I8">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J8">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N8">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O8">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P8">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q8">
-        <v>36.94955867092467</v>
+        <v>67.06146182517909</v>
       </c>
       <c r="R8">
-        <v>332.546028038322</v>
+        <v>603.5531564266118</v>
       </c>
       <c r="S8">
-        <v>0.1072792285238572</v>
+        <v>0.2159100414586771</v>
       </c>
       <c r="T8">
-        <v>0.1126257555375791</v>
+        <v>0.2216302011339257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H9">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I9">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J9">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N9">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O9">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P9">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q9">
-        <v>20.64053112478867</v>
+        <v>57.95625095763554</v>
       </c>
       <c r="R9">
-        <v>185.764780123098</v>
+        <v>521.6062586187199</v>
       </c>
       <c r="S9">
-        <v>0.05992765096629984</v>
+        <v>0.1865950458949627</v>
       </c>
       <c r="T9">
-        <v>0.06291429441227656</v>
+        <v>0.1915385559323771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H10">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I10">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J10">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N10">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O10">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P10">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q10">
-        <v>16.3158359965435</v>
+        <v>17.291533810024</v>
       </c>
       <c r="R10">
-        <v>97.89501597926102</v>
+        <v>103.749202860144</v>
       </c>
       <c r="S10">
-        <v>0.04737134519033656</v>
+        <v>0.05567155382832167</v>
       </c>
       <c r="T10">
-        <v>0.03315480928479798</v>
+        <v>0.03809764964782201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H11">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I11">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J11">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N11">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O11">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P11">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q11">
-        <v>23.32777405897667</v>
+        <v>51.49623243228733</v>
       </c>
       <c r="R11">
-        <v>209.9499665307901</v>
+        <v>463.466091890586</v>
       </c>
       <c r="S11">
-        <v>0.06772978336531885</v>
+        <v>0.1657964705333372</v>
       </c>
       <c r="T11">
-        <v>0.07110526547288899</v>
+        <v>0.1701889586206727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H12">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I12">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J12">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N12">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O12">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P12">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q12">
-        <v>32.01547868909599</v>
+        <v>8.947348852841669</v>
       </c>
       <c r="R12">
-        <v>288.139308201864</v>
+        <v>80.52613967557501</v>
       </c>
       <c r="S12">
-        <v>0.09295363674508154</v>
+        <v>0.02880674547176309</v>
       </c>
       <c r="T12">
-        <v>0.09758621228388445</v>
+        <v>0.02956992991056682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H13">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I13">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J13">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N13">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O13">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P13">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q13">
-        <v>68.25342273958134</v>
+        <v>20.32780763971222</v>
       </c>
       <c r="R13">
-        <v>614.280804656232</v>
+        <v>182.95026875741</v>
       </c>
       <c r="S13">
-        <v>0.1981667656933814</v>
+        <v>0.06544709391655967</v>
       </c>
       <c r="T13">
-        <v>0.2080428990379267</v>
+        <v>0.06718100043130307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H14">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I14">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J14">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N14">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O14">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P14">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q14">
-        <v>38.12729967836534</v>
+        <v>17.56781747551111</v>
       </c>
       <c r="R14">
-        <v>343.145697105288</v>
+        <v>158.1103572796</v>
       </c>
       <c r="S14">
-        <v>0.1106986779360789</v>
+        <v>0.05656107242881363</v>
       </c>
       <c r="T14">
-        <v>0.116215621710865</v>
+        <v>0.05805955931488113</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H15">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I15">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J15">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N15">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O15">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P15">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q15">
-        <v>30.138699667286</v>
+        <v>5.241445138820001</v>
       </c>
       <c r="R15">
-        <v>180.832198003716</v>
+        <v>31.44867083292</v>
       </c>
       <c r="S15">
-        <v>0.08750460263448016</v>
+        <v>0.01687527540297524</v>
       </c>
       <c r="T15">
-        <v>0.06124374134260484</v>
+        <v>0.01154823757920681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H16">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I16">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J16">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N16">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O16">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P16">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q16">
-        <v>43.09118922369333</v>
+        <v>15.60964343101167</v>
       </c>
       <c r="R16">
-        <v>387.82070301324</v>
+        <v>140.486790879105</v>
       </c>
       <c r="S16">
-        <v>0.125110818704609</v>
+        <v>0.05025656567300595</v>
       </c>
       <c r="T16">
-        <v>0.1313460273383502</v>
+        <v>0.05158802565715975</v>
       </c>
     </row>
   </sheetData>
